--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_45.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_45.xlsx
@@ -508,393 +508,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_5</t>
+          <t>model_1_45_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994476734590136</v>
+        <v>0.9466181227702918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8222898259714629</v>
+        <v>0.7206887312782158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8124355899300256</v>
+        <v>0.783165875103861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992604170066676</v>
+        <v>0.9401843487719966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00229907397222503</v>
+        <v>0.171371156621034</v>
       </c>
       <c r="G2" t="n">
-        <v>1.188348752008937</v>
+        <v>1.867755740052705</v>
       </c>
       <c r="H2" t="n">
-        <v>0.670907019210929</v>
+        <v>0.7756030919885418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001590634037913822</v>
+        <v>0.2627034129782034</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1609288706054072</v>
+        <v>0.852308165907687</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04794865975421033</v>
+        <v>0.4139699948317921</v>
       </c>
       <c r="L2" t="n">
-        <v>1.035348898623127</v>
+        <v>0.9273097841978442</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04870380321426409</v>
+        <v>0.4204896084322174</v>
       </c>
       <c r="N2" t="n">
-        <v>142.1504977157845</v>
+        <v>37.52784713614025</v>
       </c>
       <c r="O2" t="n">
-        <v>283.4856702590009</v>
+        <v>74.49243072436607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_6</t>
+          <t>model_1_45_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994540792384002</v>
+        <v>0.9466592107280675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8222858009316888</v>
+        <v>0.72064385379096</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8124651077772483</v>
+        <v>0.7827355372649696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992295498354783</v>
+        <v>0.9398052599133511</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002272409744514372</v>
+        <v>0.1712392524765446</v>
       </c>
       <c r="G3" t="n">
-        <v>1.188375667468441</v>
+        <v>1.868055836016627</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6708014355829566</v>
+        <v>0.7771423854858346</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001657020601140005</v>
+        <v>0.2643683273433179</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1601948775030131</v>
+        <v>0.8520534786645185</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04766979908195935</v>
+        <v>0.4138106480946867</v>
       </c>
       <c r="L3" t="n">
-        <v>1.034938928742385</v>
+        <v>0.9273657337573684</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04842055076518356</v>
+        <v>0.4203277521432908</v>
       </c>
       <c r="N3" t="n">
-        <v>142.1738288981734</v>
+        <v>37.5293871261406</v>
       </c>
       <c r="O3" t="n">
-        <v>283.5090014413897</v>
+        <v>74.49397071436643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_4</t>
+          <t>model_1_45_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994462588430743</v>
+        <v>0.9466975856950399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8221873368400819</v>
+        <v>0.7205978662564561</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8123802583695569</v>
+        <v>0.7823085981164022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993384173304112</v>
+        <v>0.9394263286520129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002304962348838514</v>
+        <v>0.1711160578116762</v>
       </c>
       <c r="G4" t="n">
-        <v>1.189034097302401</v>
+        <v>1.868363354871608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6711049369944175</v>
+        <v>0.778669522064906</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001422877381753108</v>
+        <v>0.26603254955931</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1615378941283752</v>
+        <v>0.8518530959499027</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0480100234205162</v>
+        <v>0.4136617674038491</v>
       </c>
       <c r="L4" t="n">
-        <v>1.035439434043248</v>
+        <v>0.9274179890315437</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04876613329697311</v>
+        <v>0.4201765267303987</v>
       </c>
       <c r="N4" t="n">
-        <v>142.1453818744545</v>
+        <v>37.53082650407906</v>
       </c>
       <c r="O4" t="n">
-        <v>283.4805544176709</v>
+        <v>74.49541009230488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_0</t>
+          <t>model_1_45_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994218450503742</v>
+        <v>0.9467333635566864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8221652853579767</v>
+        <v>0.7205508507782338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8119042233419325</v>
+        <v>0.7818846631921597</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999615813618251</v>
+        <v>0.9390475372902852</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00240658541272344</v>
+        <v>0.1710012006007655</v>
       </c>
       <c r="G5" t="n">
-        <v>1.189181555664777</v>
+        <v>1.868677747590966</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6728076866861333</v>
+        <v>0.7801859127077623</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008262763492701045</v>
+        <v>0.2676961573524145</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1632204986744443</v>
+        <v>0.8516556373632724</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04905696089978914</v>
+        <v>0.4135229142390606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.037001916776049</v>
+        <v>0.9274667078218708</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04982955899499107</v>
+        <v>0.420035486767067</v>
       </c>
       <c r="N5" t="n">
-        <v>142.0590927546835</v>
+        <v>37.53216940289403</v>
       </c>
       <c r="O5" t="n">
-        <v>283.3942652978999</v>
+        <v>74.49675299111985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_3</t>
+          <t>model_1_45_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994495193972275</v>
+        <v>0.9467665916979149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.821941739032015</v>
+        <v>0.7205028360315819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8121834116560567</v>
+        <v>0.7814640323142521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999471839827681</v>
+        <v>0.9386688787784851</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002291390205129164</v>
+        <v>0.1708945287246492</v>
       </c>
       <c r="G6" t="n">
-        <v>1.190676410975819</v>
+        <v>1.868998822422914</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6718090462747793</v>
+        <v>0.7816904849684583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001135923290739414</v>
+        <v>0.269359181684022</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1604026130951684</v>
+        <v>0.8515448717067293</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04786846775414025</v>
+        <v>0.4133939147165198</v>
       </c>
       <c r="L6" t="n">
-        <v>1.035230758577441</v>
+        <v>0.9275119546524798</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04862234827035548</v>
+        <v>0.4199044556309983</v>
       </c>
       <c r="N6" t="n">
-        <v>142.1571931382735</v>
+        <v>37.53341740771454</v>
       </c>
       <c r="O6" t="n">
-        <v>283.4923656814899</v>
+        <v>74.49800099594037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_1</t>
+          <t>model_1_45_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999417843745422</v>
+        <v>0.9467972726179996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8217310550893211</v>
+        <v>0.720453813195824</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8114106675479529</v>
+        <v>0.781046539027433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995695285389158</v>
+        <v>0.9382902829046871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002423240951409315</v>
+        <v>0.17079603415994</v>
       </c>
       <c r="G7" t="n">
-        <v>1.192085255470724</v>
+        <v>1.869326638351357</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6745731071431889</v>
+        <v>0.7831838342477582</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000925822476346791</v>
+        <v>0.2710219309167792</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1650277791619374</v>
+        <v>0.8515333580660601</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04922642533649295</v>
+        <v>0.4132747683562837</v>
       </c>
       <c r="L7" t="n">
-        <v>1.037258000292994</v>
+        <v>0.9275537329266378</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05000169232717068</v>
+        <v>0.4197834328346913</v>
       </c>
       <c r="N7" t="n">
-        <v>142.0452987973416</v>
+        <v>37.53457043420267</v>
       </c>
       <c r="O7" t="n">
-        <v>283.380471340558</v>
+        <v>74.4991540224285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_9</t>
+          <t>model_1_45_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994484856659698</v>
+        <v>0.9468255875400683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8216595195453084</v>
+        <v>0.7204038577838996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8095874766291173</v>
+        <v>0.7806320745562449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9984586868635035</v>
+        <v>0.9379120889330773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002295693139086773</v>
+        <v>0.1707051351283515</v>
       </c>
       <c r="G8" t="n">
-        <v>1.192563613982927</v>
+        <v>1.86966069042092</v>
       </c>
       <c r="H8" t="n">
-        <v>0.68109455534518</v>
+        <v>0.7846663496291675</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003314929034466331</v>
+        <v>0.2726829150416692</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1435900845079637</v>
+        <v>0.8515199430937516</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04791339206408552</v>
+        <v>0.4131647796319908</v>
       </c>
       <c r="L8" t="n">
-        <v>1.035296917377934</v>
+        <v>0.9275922894162631</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04866798009327456</v>
+        <v>0.4196717118979391</v>
       </c>
       <c r="N8" t="n">
-        <v>142.1534409193607</v>
+        <v>37.53563513373415</v>
       </c>
       <c r="O8" t="n">
-        <v>283.4886134625771</v>
+        <v>74.50021872195997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_2</t>
+          <t>model_1_45_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994333061317978</v>
+        <v>0.9468514822141965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8216446785469634</v>
+        <v>0.7203529645137371</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8110244053311271</v>
+        <v>0.7802208520857384</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995243167090647</v>
+        <v>0.9375339476459162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002358878355323097</v>
+        <v>0.1706220057877222</v>
       </c>
       <c r="G9" t="n">
-        <v>1.192662855807196</v>
+        <v>1.870001013952838</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6759547446960046</v>
+        <v>0.7861372685621202</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001023060347046686</v>
+        <v>0.2743436677825619</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1639014996294322</v>
+        <v>0.8515024273748002</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04856828548881562</v>
+        <v>0.4130641666711386</v>
       </c>
       <c r="L9" t="n">
-        <v>1.03626840756494</v>
+        <v>0.9276275502491186</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04933318743479091</v>
+        <v>0.4195695143835295</v>
       </c>
       <c r="N9" t="n">
-        <v>142.0991380921818</v>
+        <v>37.53660932338751</v>
       </c>
       <c r="O9" t="n">
-        <v>283.4343106353982</v>
+        <v>74.50119291161333</v>
       </c>
     </row>
     <row r="10">
@@ -904,95 +904,95 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994431018937898</v>
+        <v>0.9468750741515758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8216070483778897</v>
+        <v>0.7203011732801106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8094078414679803</v>
+        <v>0.7798129510389029</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9984796685741005</v>
+        <v>0.9371560364284562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002318103234515606</v>
+        <v>0.1705462688933781</v>
       </c>
       <c r="G10" t="n">
-        <v>1.192914488921064</v>
+        <v>1.870347342170575</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6817370999007223</v>
+        <v>0.7875963069551895</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003269803303682675</v>
+        <v>0.2760034100839714</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1442446399298742</v>
+        <v>0.8514815410157579</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04814668456410686</v>
+        <v>0.4129724795835409</v>
       </c>
       <c r="L10" t="n">
-        <v>1.035641478797451</v>
+        <v>0.9276596754404436</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0489049467169643</v>
+        <v>0.4194763833159557</v>
       </c>
       <c r="N10" t="n">
-        <v>142.1340119980542</v>
+        <v>37.53749729452913</v>
       </c>
       <c r="O10" t="n">
-        <v>283.4691845412706</v>
+        <v>74.50208088275495</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_7</t>
+          <t>model_1_45_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994406018435394</v>
+        <v>0.9468963169010598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8215830905695463</v>
+        <v>0.7202485663903442</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8093643320420475</v>
+        <v>0.7794081138855713</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985201621281741</v>
+        <v>0.9367782881025568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002328509760426065</v>
+        <v>0.1704780735668404</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193074694895772</v>
+        <v>1.870699124684675</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6818927305944624</v>
+        <v>0.7890443859788496</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003182713110957584</v>
+        <v>0.2776624369845118</v>
       </c>
       <c r="J11" t="n">
-        <v>0.144713830018888</v>
+        <v>0.8514624432926133</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04825463460048232</v>
+        <v>0.4128899048981948</v>
       </c>
       <c r="L11" t="n">
-        <v>1.035801482013476</v>
+        <v>0.9276886017376134</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04901459685850222</v>
+        <v>0.4193925081618597</v>
       </c>
       <c r="N11" t="n">
-        <v>142.1250536076561</v>
+        <v>37.5382971826187</v>
       </c>
       <c r="O11" t="n">
-        <v>283.4602261508725</v>
+        <v>74.50288077084453</v>
       </c>
     </row>
   </sheetData>
